--- a/biology/Histoire de la zoologie et de la botanique/Claude_Caillé/Claude_Caillé.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Claude_Caillé/Claude_Caillé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Claude_Caill%C3%A9</t>
+          <t>Claude_Caillé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Caillé est un Français né à Rochefort  le 8 mars 1931 et mort le 17 mars 2011 à Royan[1],[2]. Il est le créateur du zoo de la Palmyre, qui a ouvert ses portes en 1966, et qui est aujourd'hui un des dix parcs zoologiques les plus fréquentés de France.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Caillé est un Français né à Rochefort  le 8 mars 1931 et mort le 17 mars 2011 à Royan,. Il est le créateur du zoo de la Palmyre, qui a ouvert ses portes en 1966, et qui est aujourd'hui un des dix parcs zoologiques les plus fréquentés de France.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Claude_Caill%C3%A9</t>
+          <t>Claude_Caillé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un vendeur de journaux, il commence à travailler avec son père dans ce milieu modeste dès l'âge de 14 ans. Il a une vingtaine d’années lorsqu'il fait la rencontre de sa future femme, Irène, dont l'un des frères possède un petit parc zoologique à La Crouzille, au nord de Limoges. C'est en venant y aider son beau-frère que Claude Caillé se découvre une passion pour les animaux. Dès lors, il se plonge dans les livres et étudie la zoologie.
 En 1957, accompagné de sa femme et de ses deux enfants, Patrick et Bruno, il débute avec un petit zoo ambulant qu'il présente dans les écoles, sillonnant la France. Puis, dans les années 60, il décide de partir en Afrique pour y capturer des animaux. Après un séjour chez les Pygmées, il ramène du Cameroun des gorilles et des chimpanzés.
